--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288301.395682056</v>
+        <v>1280672.909657943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8078410.590648621</v>
+        <v>8854286.535708254</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10597037.18428935</v>
+        <v>10538821.84420312</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>329.4340203043702</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>163.1482332545338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>78.13981344678609</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>97.42399283237027</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>354.7522162574265</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>131.7972340868075</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>66.33917458077025</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>146.6850513083908</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>11.43714135353491</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>114.1591929122301</v>
       </c>
       <c r="T8" t="n">
-        <v>42.56279373782145</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>118.297116920654</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>165.1542885055718</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>404.6202943884102</v>
       </c>
       <c r="G11" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,19 +1610,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>33.36619356526513</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>277.3039539762347</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>105.344349351664</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>71.67037196991727</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>111.9187566128689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>142.3844270995955</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492352</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971802</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.3443493516642</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>87.83762944231115</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2965,10 +2965,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>143.5591234901482</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>127.3165365479907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873191</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.8500543646698</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3518,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873191</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>132.3940446657704</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3755,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873191</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>109.7811651255454</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>120.608807415962</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4263234899701</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2113.174258592771</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2301.146718656286</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2113.174258592771</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>600.3039914920054</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>372.9958041606071</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>372.9958041606071</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>372.9958041606071</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>372.9958041606071</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X4" t="n">
-        <v>372.9958041606071</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2465.942913862886</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>604.1592828635405</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>187.071501099968</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>1015.145187653148</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>142.9741724191618</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>647.3357122852804</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>986.8683960264059</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>779.4281112788112</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>779.4281112788112</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064347</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064347</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9622657131106</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.952328438143</v>
+        <v>1265.777945494358</v>
       </c>
       <c r="C8" t="n">
-        <v>817.9898114977311</v>
+        <v>896.8154285539463</v>
       </c>
       <c r="D8" t="n">
-        <v>459.7241128909807</v>
+        <v>538.5497299471957</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273642</v>
+        <v>538.5497299471957</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353295</v>
+        <v>127.5638251575882</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>468.4264940665498</v>
       </c>
       <c r="L8" t="n">
-        <v>297.0690422295933</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771036</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904028</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.934053515051</v>
+        <v>2581.836774945263</v>
       </c>
       <c r="T8" t="n">
-        <v>2497.941332567756</v>
+        <v>2373.580004877862</v>
       </c>
       <c r="U8" t="n">
-        <v>2244.249629312907</v>
+        <v>2373.580004877862</v>
       </c>
       <c r="V8" t="n">
-        <v>1913.186741969337</v>
+        <v>2042.517117534291</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.418086699223</v>
+        <v>2042.517117534291</v>
       </c>
       <c r="X8" t="n">
-        <v>1186.952328438143</v>
+        <v>2042.517117534291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1186.952328438143</v>
+        <v>1652.37778555848</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004798</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>537.8115956207098</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>845.2309936650815</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.3161445508897</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>501.3161445508897</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>501.3161445508897</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>501.3161445508897</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>501.3161445508897</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R10" t="n">
-        <v>934.3856259861193</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S10" t="n">
-        <v>726.9453412385247</v>
+        <v>1520.993878660174</v>
       </c>
       <c r="T10" t="n">
-        <v>501.3161445508897</v>
+        <v>1298.229440112698</v>
       </c>
       <c r="U10" t="n">
-        <v>501.3161445508897</v>
+        <v>1298.229440112698</v>
       </c>
       <c r="V10" t="n">
-        <v>501.3161445508897</v>
+        <v>1298.229440112698</v>
       </c>
       <c r="W10" t="n">
-        <v>501.3161445508897</v>
+        <v>1298.229440112698</v>
       </c>
       <c r="X10" t="n">
-        <v>501.3161445508897</v>
+        <v>1070.23988921468</v>
       </c>
       <c r="Y10" t="n">
-        <v>501.3161445508897</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038042</v>
+        <v>2342.888901953459</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097631</v>
+        <v>1973.926385013047</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.40402049088</v>
+        <v>1615.660686406296</v>
       </c>
       <c r="E11" t="n">
-        <v>709.6157678926361</v>
+        <v>1229.872433808052</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6298631030285</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.5121164321834</v>
@@ -5042,7 +5042,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5069,22 +5069,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339056</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077976</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102164</v>
+        <v>2729.488742017581</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I13" t="n">
         <v>66.5121164321834</v>
@@ -5224,25 +5224,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.464090846021</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1261.532988317206</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C14" t="n">
-        <v>892.5704713767946</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X14" t="n">
-        <v>2038.27216035714</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y14" t="n">
-        <v>1648.132828381328</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5346,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5479,7 +5479,7 @@
         <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1969.42314369238</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1600.460626751969</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3155.791869823214</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V17" t="n">
-        <v>3155.791869823214</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W17" t="n">
-        <v>3155.791869823214</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X17" t="n">
-        <v>2782.326111562134</v>
+        <v>2746.162315732314</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>2356.022983756502</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2151.073568494535</v>
+        <v>899.9923811356281</v>
       </c>
       <c r="C19" t="n">
-        <v>1982.137385566628</v>
+        <v>731.0561982077212</v>
       </c>
       <c r="D19" t="n">
-        <v>1832.020746154293</v>
+        <v>731.0561982077212</v>
       </c>
       <c r="E19" t="n">
-        <v>1684.1076525719</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>1537.217705073989</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>3325.60582160917</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>3070.921333403283</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W19" t="n">
-        <v>2781.504163366323</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X19" t="n">
-        <v>2553.514612468305</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y19" t="n">
-        <v>2332.722033324775</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4299.260038026375</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>619.8559841413803</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C22" t="n">
-        <v>619.8559841413803</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>619.8559841413803</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>619.8559841413803</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
         <v>506.8067350374723</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>1666.926296067743</v>
       </c>
       <c r="X22" t="n">
-        <v>619.8559841413803</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y22" t="n">
-        <v>619.8559841413803</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="23">
@@ -5966,46 +5966,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="C25" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I25" t="n">
         <v>2917.269290763411</v>
@@ -6190,7 +6190,7 @@
         <v>3213.574689558379</v>
       </c>
       <c r="Y25" t="n">
-        <v>2992.782110414849</v>
+        <v>3014.594967945065</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>348.082974081076</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1002.806306216376</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.840519464784</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.6328654632896</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6966825353827</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>653.6966825353827</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
         <v>653.6966825353827</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1777.788130637675</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1777.788130637675</v>
       </c>
       <c r="V28" t="n">
-        <v>1667.240599230347</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="W28" t="n">
-        <v>1377.823429193387</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="X28" t="n">
-        <v>1149.833878295369</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y28" t="n">
-        <v>929.0412991518393</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6467,10 +6467,10 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
         <v>3196.009277420603</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,16 +6558,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6655,16 +6655,16 @@
         <v>1956.343466104704</v>
       </c>
       <c r="V31" t="n">
-        <v>1796.967499402969</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W31" t="n">
-        <v>1507.550329366009</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X31" t="n">
-        <v>1279.560778467991</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y31" t="n">
-        <v>1058.768199324461</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6704,25 +6704,25 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.2638710736754</v>
+        <v>3183.531150872973</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>3585.972194846743</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>3585.972194846743</v>
       </c>
       <c r="Y34" t="n">
-        <v>263.2638710736754</v>
+        <v>3365.179615703213</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551606</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001571</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1586.925993846822</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2120.457898518746</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577529</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906983</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>946.665243953484</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C37" t="n">
-        <v>777.7290610255772</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>627.6124216132414</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>479.6993280308483</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>332.8093805329379</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="G37" t="n">
-        <v>165.1065439076569</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7117,28 +7117,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1866.513008862232</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V37" t="n">
-        <v>1866.513008862232</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W37" t="n">
-        <v>1577.095838825271</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X37" t="n">
-        <v>1349.106287927254</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1128.313708783724</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551606</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001571</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176193</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.14211023273</v>
       </c>
       <c r="P38" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679676</v>
       </c>
       <c r="Q38" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7284,7 +7284,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4168978689405</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7360,22 +7360,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1883.949150983575</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.264662777688</v>
+        <v>1311.74262555162</v>
       </c>
       <c r="W40" t="n">
-        <v>1339.847492740728</v>
+        <v>1022.32545551466</v>
       </c>
       <c r="X40" t="n">
-        <v>1111.85794184271</v>
+        <v>794.3359046166422</v>
       </c>
       <c r="Y40" t="n">
-        <v>891.0653626991802</v>
+        <v>573.5433254731121</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551606</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001571</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1002.806306216376</v>
+        <v>785.6651881176193</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.840519464784</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679676</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188664</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7521,7 +7521,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7594,25 +7594,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1712.341567565139</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1343.379050624727</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>985.1133520179767</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>599.3250994197324</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>188.3391946301248</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W44" t="n">
-        <v>2862.546497866152</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2489.080739605072</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>2098.941407629261</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7716,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088493</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="V46" t="n">
-        <v>1927.294548088493</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="W46" t="n">
-        <v>1722.044275313594</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.054724415577</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.262145272047</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>21.63976862165688</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451757</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,22 +8459,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>368.1017737596997</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>97.95619053890903</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>107.5040408147554</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>64.28566532692543</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9884,19 +9884,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>226.768859619311</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>189.7998007892635</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225791976</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260144</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>219.3344627260164</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855125</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.255751353301264</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21.59472895491427</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>64.8111951831838</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>336.3649071132039</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.5947289549143</v>
+        <v>21.59472895491427</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>77.3790876444483</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>82.8793596908057</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>41.08961329490516</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>94.35543628911095</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>33.50229141006236</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>83.3252282894417</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>21.59472895491459</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.48763083027306</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>131.7113198338581</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>142.9638748464428</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>91.26811680410414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>75.90496054965098</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,10 +25366,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25600,13 +25600,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>119.7435986580576</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25834,19 +25834,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>176.7418332110456</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>290.3129182374915</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>331.8898480104186</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>105.283331899067</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1015061.31162634</v>
+        <v>992670.4058138183</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>992670.4058138183</v>
+        <v>952991.2360215699</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789172.8793532165</v>
+        <v>789172.8793532164</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789172.8793532163</v>
+        <v>789172.8793532165</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.035263277</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651046</v>
+        <v>409196.5187651048</v>
       </c>
       <c r="F2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="G2" t="n">
         <v>409196.5187651049</v>
       </c>
-      <c r="G2" t="n">
-        <v>409196.5187651048</v>
-      </c>
       <c r="H2" t="n">
+        <v>476498.1442643796</v>
+      </c>
+      <c r="I2" t="n">
         <v>476498.1442643797</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>476498.1442643798</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>476498.1442643797</v>
       </c>
-      <c r="K2" t="n">
-        <v>476498.1442643799</v>
-      </c>
       <c r="L2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="M2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="N2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="O2" t="n">
         <v>476498.1442643798</v>
-      </c>
-      <c r="M2" t="n">
-        <v>476498.1442643799</v>
-      </c>
-      <c r="N2" t="n">
-        <v>476498.1442643799</v>
-      </c>
-      <c r="O2" t="n">
-        <v>476498.1442643799</v>
       </c>
       <c r="P2" t="n">
         <v>409196.5187651048</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481114</v>
+        <v>315238.2384513058</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.2295734511</v>
+        <v>149914.8602001172</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97970.74401294843</v>
+        <v>97970.74401294834</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254663</v>
+        <v>39153.48277254652</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="P4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26497,19 +26497,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388028.4495998718</v>
+        <v>-390124.3108224175</v>
       </c>
       <c r="C6" t="n">
-        <v>201939.4296146723</v>
+        <v>32349.65304980893</v>
       </c>
       <c r="D6" t="n">
-        <v>45473.38725842955</v>
+        <v>-39816.76603324678</v>
       </c>
       <c r="E6" t="n">
-        <v>-116106.5284778761</v>
+        <v>179474.522656589</v>
       </c>
       <c r="F6" t="n">
-        <v>329533.7010955752</v>
+        <v>329389.3828567062</v>
       </c>
       <c r="G6" t="n">
-        <v>329533.7010955751</v>
+        <v>329389.3828567063</v>
       </c>
       <c r="H6" t="n">
-        <v>254403.339895521</v>
+        <v>253582.0426448219</v>
       </c>
       <c r="I6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577704</v>
       </c>
       <c r="J6" t="n">
-        <v>175950.8647158764</v>
+        <v>175129.5674651774</v>
       </c>
       <c r="K6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577704</v>
       </c>
       <c r="L6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577703</v>
       </c>
       <c r="M6" t="n">
-        <v>313220.6011359229</v>
+        <v>312399.3038852239</v>
       </c>
       <c r="N6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577703</v>
       </c>
       <c r="O6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577705</v>
       </c>
       <c r="P6" t="n">
-        <v>329533.7010955751</v>
+        <v>329389.3828567062</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,19 +26790,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>1194.51293060493</v>
@@ -26829,7 +26829,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209782</v>
+        <v>368.0909448599693</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477368</v>
+        <v>157.1141826477369</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>363.1114752026375</v>
+        <v>363.1114752026372</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477369</v>
+        <v>157.1141826477365</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477368</v>
+        <v>157.1141826477369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>363.1114752026375</v>
+        <v>363.1114752026372</v>
       </c>
     </row>
   </sheetData>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>35.83887146663733</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>53.30008710312399</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>89.10700765184174</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>114.7215461176486</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>10.52067551358107</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>183.2436499884081</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>62.83400708702106</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>139.8379470282002</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.773604141552099</v>
       </c>
       <c r="T8" t="n">
-        <v>170.0890693771445</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.87606474713735</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>28.64388288148851</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33980,10 +33980,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>89.93049555434075</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355125</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>556.6870392399094</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>294.0960148009277</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>358.2983456184749</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708319</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.072666295638</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36604,19 +36604,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>734.8218605075301</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>742.101636202175</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502519</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142335</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37780,7 +37780,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>556.5257492814169</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37789,13 +37789,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>502.5482327048844</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1372114.610842062</v>
+        <v>1367808.495840223</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10357448.82631056</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418320.0334880266</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11005485.29021803</v>
+        <v>11005380.33195417</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.2224973225649</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>350.666752269543</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>268.872536391812</v>
+        <v>208.279329433658</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>265.1806127579635</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,10 +946,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>337.5639460635051</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.41172425543448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.74270587818838</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>105.1363548594131</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1192,16 +1192,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>98.31231118436347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.76943124013382</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1967972861383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>61.17550840396296</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>7.558362179665379</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.2811815126423244</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>206.1038651114209</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>112.0357928422982</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>5.890337106877586</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>45.66054613217656</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>133.8107367464748</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E31" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>33.262726309339</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>180.6687625091738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>285.0197134293376</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>241.1435815093809</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.16086499484972</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1408.645612988121</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>456.5405636086444</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>893.2319707331117</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>475.2681626312985</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.1618402196266</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>337.1618402196266</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>409.2948950230958</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>337.1618402196266</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.854867100932</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="C8" t="n">
-        <v>915.8923501605202</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="D8" t="n">
-        <v>915.8923501605202</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605202</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>109.8675491160735</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>928.786853212905</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1556.094521272752</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2103.255726039829</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2532.570772379123</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4840,16 +4840,16 @@
         <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2072.442488527913</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2072.442488527913</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.976730266833</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.837398291021</v>
+        <v>1015.145187653148</v>
       </c>
     </row>
     <row r="9">
@@ -4889,13 +4889,13 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>818.7575723533688</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1486.301972380379</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.1229344124174</v>
+        <v>872.2291984494694</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972706</v>
+        <v>703.2930155215626</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>553.1763761092268</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>405.2632825268337</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>258.3733350289233</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>89.76649002430668</v>
       </c>
       <c r="H10" t="n">
         <v>71.81756957972706</v>
@@ -4992,22 +4992,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>573.5639783861873</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>573.5639783861873</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>573.5639783861873</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.7713992426571</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.229508727735</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.266991787324</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.001293180573</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.213040582329</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2271357927214</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2440287091278</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>93.81666304797187</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3125385470848</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9429223347665</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.462702840541</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4564.749365221855</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.6291563257736</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>769.1761270446466</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>620.2417173833953</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>461.0042623779398</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.4697044048247</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.6894541647542</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4646447998178</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>302.0575440967218</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>792.7898769404732</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M12" t="n">
-        <v>1384.808231192601</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2006.904194591937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.780669592131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.780669592131</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.780669592131</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.168964849488</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.390323855922</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>930.454140928015</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3375015156793</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4244079332861</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3202656099546</v>
+        <v>297.3219370380596</v>
       </c>
       <c r="H13" t="n">
-        <v>176.447548648385</v>
+        <v>155.6101058802577</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>172.7987859375258</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4275129080894</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>820.1893309912236</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.418923035683</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.11478882739</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.137245842419</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.667680678624</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.380814232059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.380814232059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.210623970989</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.531841685371</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.455628000098</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1737.455628000098</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.820918727709</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.831367829692</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.038788686162</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,22 +5278,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.679061850319</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.824227505223</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
         <v>317.6151975578602</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="20">
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>467.7318369701959</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D34" t="n">
         <v>779.6143379232838</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1683.601903741512</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7022,19 +7022,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D37" t="n">
-        <v>2505.71655096576</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>2357.803457383367</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1756.608083824432</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1501.923595618545</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,19 +7490,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3388.154264430192</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3388.154264430192</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8470,10 +8470,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>130.9032309267717</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>339.184373405</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.537044377342227</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>20.09032791460258</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>278.9646361569256</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.09406519747934</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>19.60579027761628</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>280.2941372823665</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>84.77391660562003</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E31" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>146.5692538725983</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>45.04089287986332</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.164760959906573</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>45.37941682721012</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.6711151870876</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933216.2051361211</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="E2" t="n">
-        <v>483936.3770316739</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>763071.323141695</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.63761495089</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630332</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,13 +26426,13 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>6468.874198228083</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
@@ -26441,7 +26441,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
@@ -26459,7 +26459,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>100905.9587784758</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-390124.3108224175</v>
       </c>
       <c r="C6" t="n">
-        <v>199843.5683921268</v>
+        <v>199843.568392127</v>
       </c>
       <c r="D6" t="n">
-        <v>44039.76229833273</v>
+        <v>44039.7622983325</v>
       </c>
       <c r="E6" t="n">
-        <v>-386509.779086725</v>
+        <v>-393912.1772117495</v>
       </c>
       <c r="F6" t="n">
-        <v>369635.2558084628</v>
+        <v>377140.5141690566</v>
       </c>
       <c r="G6" t="n">
-        <v>377487.8934234138</v>
+        <v>377140.514169057</v>
       </c>
       <c r="H6" t="n">
-        <v>377487.8934234138</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="I6" t="n">
-        <v>377487.8934234136</v>
+        <v>377140.5141690569</v>
       </c>
       <c r="J6" t="n">
-        <v>201064.6742308207</v>
+        <v>200717.2949764638</v>
       </c>
       <c r="K6" t="n">
-        <v>377487.8934234138</v>
+        <v>377140.5141690567</v>
       </c>
       <c r="L6" t="n">
-        <v>377487.8934234137</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="M6" t="n">
-        <v>253279.3827153554</v>
+        <v>252932.0034609985</v>
       </c>
       <c r="N6" t="n">
-        <v>377487.8934234139</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="O6" t="n">
-        <v>377487.8934234137</v>
+        <v>377140.5141690567</v>
       </c>
       <c r="P6" t="n">
-        <v>377487.8934234139</v>
+        <v>377140.5141690567</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>764.5649483783205</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>227.5113443409157</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>31.26361780271878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>17.40933785016568</v>
+        <v>78.00254480831975</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>58.74216000639365</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>32.16715461496392</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>237.6737460969194</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>147.1729290966603</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.9911357852922</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>301.7396908822984</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>68.93450991426437</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>134.9426654290987</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28064,13 +28064,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293309</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>199.0463877591105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>574.6535388222619</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,19 +32794,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>524.5136961554247</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33742,10 +33742,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33970,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.4894619148576</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35190,10 +35190,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>166.2407258980799</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,16 +35257,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>500.3079215552632</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>778.0318315269849</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20494878475154</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>432.0572943778175</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>393.1719840720914</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1367808.495840223</v>
+        <v>1369569.026143008</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>350.666752269543</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>265.1806127579635</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>208.279329433658</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>265.1806127579635</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>111.5317316087713</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>14.46389722690856</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>105.1363548594131</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.5928231001266</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.76943124013382</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>147.3181964444662</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>61.17550840396296</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2811815126423244</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>206.1038651114209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>112.0357928422982</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>256.0341711178253</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.8326660635311</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.8107367464748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>38.61213096654735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>220.8645017249725</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.262726309339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>66.2562870115476</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>146.9393756113374</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>285.0197134293376</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740409</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>241.1435815093809</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>140.1230996349842</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>582.4867033121934</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>893.2319707331117</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>475.2681626312985</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.48357412947</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1304.217875522719</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1304.217875522719</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>893.2319707331117</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>475.2681626312985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2529.462086792381</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2529.462086792381</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2275.700301430472</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1944.637414086902</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1015.145187653148</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="C8" t="n">
-        <v>1015.145187653148</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.145187653148</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.145187653148</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
         <v>908.9468494113166</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>297.0690422295933</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>928.786853212905</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.094521272752</v>
+        <v>2024.91527597564</v>
       </c>
       <c r="O8" t="n">
-        <v>2103.255726039829</v>
+        <v>2195.084301292599</v>
       </c>
       <c r="P8" t="n">
-        <v>2532.570772379123</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1388.610945914228</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1015.145187653148</v>
+        <v>2454.126037381731</v>
       </c>
       <c r="Y8" t="n">
-        <v>1015.145187653148</v>
+        <v>2063.986705405919</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>818.7575723533688</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1486.301972380379</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>872.2291984494694</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="C10" t="n">
-        <v>703.2930155215626</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1763761092268</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="E10" t="n">
-        <v>405.2632825268337</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>258.3733350289233</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>89.76649002430668</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
         <v>71.81756957972706</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>510.040998651502</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>220.6238286145414</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>71.81756957972706</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5477693179085</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4311299055728</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5180363231797</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>464.5180363231797</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>297.3219370380596</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H13" t="n">
-        <v>155.6101058802577</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.679061850319</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.824227505223</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.222762528164</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.222762528164</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,16 +5606,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.999011369783</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.2064322262529</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5749,19 +5749,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701959</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>1965.532750177311</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,34 +6214,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
         <v>555.8158034133954</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2298.539471851637</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2298.539471851637</v>
       </c>
       <c r="U37" t="n">
-        <v>1756.608083824432</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V37" t="n">
-        <v>1501.923595618545</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W37" t="n">
-        <v>1212.506425581584</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.506425581584</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>2227.361618603201</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.677130397314</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>626.3497813227623</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>147.63081181939</v>
       </c>
       <c r="Q8" t="n">
-        <v>130.9032309267717</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>339.184373405</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-2.300097184559153e-14</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>20.09032791460258</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.09406519747934</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>19.60579027761628</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>55.21102825632966</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>30.48882721876532</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>30.48882721876566</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>84.77391660562003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>65.31997266427169</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.5692538725983</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>99.26785128072125</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>34.0869103903072</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>1.164760959906573</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>45.37941682721012</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.297948387947002</v>
       </c>
       <c r="G43" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
@@ -26331,31 +26331,31 @@
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209922.4154630332</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682725</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
@@ -26450,16 +26450,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
+        <v>5677.53656668272</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682718</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682721</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390124.3108224175</v>
+        <v>-390124.3108224174</v>
       </c>
       <c r="C6" t="n">
-        <v>199843.568392127</v>
+        <v>199843.5683921269</v>
       </c>
       <c r="D6" t="n">
-        <v>44039.7622983325</v>
+        <v>44039.76229833241</v>
       </c>
       <c r="E6" t="n">
-        <v>-393912.1772117495</v>
+        <v>-393599.5358828284</v>
       </c>
       <c r="F6" t="n">
-        <v>377140.5141690566</v>
+        <v>377453.155497978</v>
       </c>
       <c r="G6" t="n">
-        <v>377140.514169057</v>
+        <v>377453.1554979778</v>
       </c>
       <c r="H6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.1554979781</v>
       </c>
       <c r="I6" t="n">
-        <v>377140.5141690569</v>
+        <v>377453.155497978</v>
       </c>
       <c r="J6" t="n">
-        <v>200717.2949764638</v>
+        <v>201029.936305385</v>
       </c>
       <c r="K6" t="n">
-        <v>377140.5141690567</v>
+        <v>377453.155497978</v>
       </c>
       <c r="L6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.155497978</v>
       </c>
       <c r="M6" t="n">
-        <v>252932.0034609985</v>
+        <v>253244.6447899197</v>
       </c>
       <c r="N6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.155497978</v>
       </c>
       <c r="O6" t="n">
-        <v>377140.5141690567</v>
+        <v>377453.1554979782</v>
       </c>
       <c r="P6" t="n">
-        <v>377140.5141690567</v>
+        <v>377453.1554979779</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26971,10 +26971,10 @@
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.26361780271878</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>58.74216000639365</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>78.00254480831975</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>58.74216000639365</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>62.88398120020021</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>237.6737460969194</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>301.7396908822984</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.1382775783424</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9426654290987</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28067,16 +28067,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>78.39145894457096</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31861,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32794,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>454.8099857531869</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>524.5136961554247</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1014732918236</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>259.4836656067906</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.2407258980799</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>500.3079215552632</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>320.8355783388566</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>393.1719840720914</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1270658774933</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
